--- a/biology/Botanique/Liriope_(genre)/Liriope_(genre).xlsx
+++ b/biology/Botanique/Liriope_(genre)/Liriope_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liriope est un genre de plantes monocotylédones originaires principalement d'Asie de l'Est et du nord des Philippines, de la famille des Liliacées ou des Asparagacées selon la classification.
 Nom chinois : 山麦冬属
@@ -512,15 +524,17 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été placé originellement dans la famille des Liliacées.
-João de Loureiro lui a donné le nom de la nymphe Liriope[1].
+João de Loureiro lui a donné le nom de la nymphe Liriope.
 En classification phylogénétique, elle a été placée dans la famille des Convallariacées.
 En classification AGP II, cette famille a été supprimée et le genre a été placé dans la famille des Ruscacées.
 Enfin en classification AGP III, la famille des Ruscacées est à son tour supprimée et c'est dans la famille des Asparagacées, sous-famille des Nolinoideae, que le genre Liriope est finalement placé.
 Un homonyme de 1821, Liriope Herb., était placé dans la famille des Amaryllidacées.
-Ce genre est très proche du genre Ophiopogon Ker Gawl., proximité occasionnant de nombreuses synonymies[2].
+Ce genre est très proche du genre Ophiopogon Ker Gawl., proximité occasionnant de nombreuses synonymies.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes herbacées vivaces, rhizomateuses ou cespiteuses, presque sans tiges.
 L'inflorescence est un épi, à nombreuses fleurs.
@@ -583,7 +599,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des espèces a été constituée à partir des index IPNI (The internation plant names index) et Tropicos (index du jardin botanique du Missouri) à la date d'Août 2011, puis modifiée à l'aide de l'index The plant list en octobre 2012. Les plantes conservées dans le genre sont mises en caractères gras :
 Liriope angustissima Ohwi (1934) : voir Liriope graminifolia (L.) Baker
@@ -592,7 +610,7 @@
 Liriope cernua var. albiflora Murai (1935) : voir Liriope minor fo. albiflora (Murai) Okuyama
 Liriope crassiuscula Ohwi (1943) : voir Liriope graminifolia (L.) Baker
 Liriope exiliflora (L.H. Bailey) H.H.Hume (1961) : voir Liriope muscari fo. exiliflora (L.H.Bailey) H.Hara
-Liriope gigantea H.H.Hume (1961)[3] ; voir Liriope muscari (Decne.) L.H.Bailey
+Liriope gigantea H.H.Hume (1961) ; voir Liriope muscari (Decne.) L.H.Bailey
 Liriope gracilis (Kunth) Nakai (1920) : voir Ophiopogon japonicus (Thunb.) Ker Gawl.
 Liriope graminifolia (L.) Baker (1875)
 Liriope graminifolia var. albiflora Makino (1926)
